--- a/数据整理/stocks/A股/科创板/688589-力合微.xlsx
+++ b/数据整理/stocks/A股/科创板/688589-力合微.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688589-力合微.xlsx
+++ b/数据整理/stocks/A股/科创板/688589-力合微.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +920,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688589-力合微.xlsx
+++ b/数据整理/stocks/A股/科创板/688589-力合微.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>005244</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>国泰聚优价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.1975</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -542,32 +626,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010447</t>
+          <t>005245</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮未来成长混合A</t>
+          <t>国泰聚优价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -580,32 +664,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0722</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -618,32 +702,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>005382</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>泰康睿利量化多策略混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -656,32 +740,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -694,12 +778,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010448</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮未来成长混合C</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -709,17 +793,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -731,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -882,32 +966,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005244</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合A</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1975</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -920,32 +1004,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005245</t>
+          <t>010447</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚优价值灵活配置混合C</t>
+          <t>中邮未来成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -958,32 +1042,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0722</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -996,32 +1080,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005382</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合C</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1034,32 +1118,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1072,12 +1156,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>010448</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>中邮未来成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1087,105 +1171,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688589-力合微.xlsx
+++ b/数据整理/stocks/A股/科创板/688589-力合微.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,11 +501,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>0.29</v>
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -532,6 +549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +1040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688589-力合微.xlsx
+++ b/数据整理/stocks/A股/科创板/688589-力合微.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -517,11 +518,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>0.29</v>
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,7 +1057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1040,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1134,7 +1435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
